--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints8.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints8.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.383920450401069e-06</v>
+        <v>1.248072176148578e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>2.42316038465388e-06</v>
+        <v>1.299794379479461e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>2.460157621824483e-06</v>
+        <v>1.347287596813863e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>2.495183252934326e-06</v>
+        <v>1.3909185341383e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>2.528508369004855e-06</v>
+        <v>1.431053897439287e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>2.560404061057517e-06</v>
+        <v>1.468060392703339e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>2.591141420113762e-06</v>
+        <v>1.502304725916974e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.620991537195034e-06</v>
+        <v>1.534153603066704e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>2.650225503322783e-06</v>
+        <v>1.563973730139048e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>2.679114409518455e-06</v>
+        <v>1.592131813120519e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>2.707929346803484e-06</v>
+        <v>1.618994557997622e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>2.736941406199345e-06</v>
+        <v>1.644928670756896e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>2.76642167872747e-06</v>
+        <v>1.670300857384845e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>2.796641255409309e-06</v>
+        <v>1.695477823867984e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>2.827871227266306e-06</v>
+        <v>1.720826276192828e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>2.860382685319912e-06</v>
+        <v>1.746712920345894e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>2.894446720591572e-06</v>
+        <v>1.773504462313697e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>2.930334424102733e-06</v>
+        <v>1.801567608082751e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>2.968316886874844e-06</v>
+        <v>1.831269063639573e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>3.008665199929352e-06</v>
+        <v>1.862975534970679e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>3.051650454287704e-06</v>
+        <v>1.897053728062584e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>3.097543740971346e-06</v>
+        <v>1.933870348901803e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>3.146616151001727e-06</v>
+        <v>1.973792103474852e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>3.199138775400294e-06</v>
+        <v>2.017185697768246e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>3.255382705188495e-06</v>
+        <v>2.064417837768501e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>3.315619031387776e-06</v>
+        <v>2.115855229462134e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>3.380118845019584e-06</v>
+        <v>2.171864578835658e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>3.449153237105368e-06</v>
+        <v>2.232812591875589e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>3.522993298666537e-06</v>
+        <v>2.299065974568411e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>3.601910120724612e-06</v>
+        <v>2.370991432900702e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>3.686174794301003e-06</v>
+        <v>2.448955672858947e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>3.776058410417158e-06</v>
+        <v>2.533325400429661e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>3.871832060094524e-06</v>
+        <v>2.624467321599362e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>3.973766834354552e-06</v>
+        <v>2.722748142354563e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>4.082133824218684e-06</v>
+        <v>2.82853456868178e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>4.19720412070837e-06</v>
+        <v>2.942193306567529e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>4.319248814845058e-06</v>
+        <v>3.064091061998326e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>4.448538997650194e-06</v>
+        <v>3.194594540960686e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>4.585345760145225e-06</v>
+        <v>3.334070449441124e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>4.729940193351601e-06</v>
+        <v>3.482885493426156e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>4.882593388290767e-06</v>
+        <v>3.641406378902298e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>5.04357643598417e-06</v>
+        <v>3.809999811856065e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>5.213160427453258e-06</v>
+        <v>3.989032498273973e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>5.391616453719478e-06</v>
+        <v>4.178871144142536e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>5.579215605804279e-06</v>
+        <v>4.379882455448272e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>5.776228974729107e-06</v>
+        <v>4.592433138177695e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>5.982927651515409e-06</v>
+        <v>4.816889898317321e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>6.199586551751049e-06</v>
+        <v>5.053622488443149e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>6.427412535203763e-06</v>
+        <v>5.303743033222218e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>6.669754646510693e-06</v>
+        <v>5.570070088130354e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>6.930261786849644e-06</v>
+        <v>5.855661069652355e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>7.212582857398423e-06</v>
+        <v>6.163573394273015e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>7.520366759334838e-06</v>
+        <v>6.496864478477132e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>7.857262393836701e-06</v>
+        <v>6.858591738749504e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>8.226918662081814e-06</v>
+        <v>7.251812591574924e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>8.632984465247989e-06</v>
+        <v>7.67958445343819e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>9.079108704513033e-06</v>
+        <v>8.144964740824098e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>9.568940281054753e-06</v>
+        <v>8.651010870217448e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.010612809605096e-05</v>
+        <v>9.200780258103032e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.069432105067945e-05</v>
+        <v>9.797330320965648e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.133716804611805e-05</v>
+        <v>1.044371847529009e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.203831798354455e-05</v>
+        <v>1.114300213756117e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.280141976413678e-05</v>
+        <v>1.189823872426366e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.363012228907252e-05</v>
+        <v>1.271248565188237e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.45280744595296e-05</v>
+        <v>1.35888003369021e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>1.549892517668532e-05</v>
+        <v>1.453024019580717e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.654895970705368e-05</v>
+        <v>1.55426128998537e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.771271466462923e-05</v>
+        <v>1.666119790940894e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>1.904187640758955e-05</v>
+        <v>1.793916528790654e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>2.058837241397384e-05</v>
+        <v>1.942993663487834e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>2.240413016182131e-05</v>
+        <v>2.118693354985619e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>2.454107712917116e-05</v>
+        <v>2.32635776323719e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>2.705114079406263e-05</v>
+        <v>2.571329048195731e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>2.99862486345349e-05</v>
+        <v>2.858949369814426e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>3.33983281286272e-05</v>
+        <v>3.194560888046458e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>3.733930675437874e-05</v>
+        <v>3.583505762845011e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>4.18611119898287e-05</v>
+        <v>4.031126154163266e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>4.701567131301636e-05</v>
+        <v>4.542764221954409e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>5.285491220198086e-05</v>
+        <v>5.123762126171622e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>5.943076213476143e-05</v>
+        <v>5.779462026768088e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>6.678299601435075e-05</v>
+        <v>6.513976431119128e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>7.481392957726369e-05</v>
+        <v>7.317509105632611e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>8.333897353617268e-05</v>
+        <v>8.171470372842355e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>9.217216802605912e-05</v>
+        <v>9.057131874024544e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001011275531819001</v>
+        <v>9.95576525045494e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0001100191691386859</v>
+        <v>0.0001084864214341061</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0001186610560313935</v>
+        <v>0.0001171703419416731</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0001268672539950044</v>
+        <v>0.0001254221304400123</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0001344518031645001</v>
+        <v>0.0001330545033418856</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0001412287436748618</v>
+        <v>0.0001398801770600548</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0001470121156610713</v>
+        <v>0.000145711868007282</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001516159592581097</v>
+        <v>0.0001503622925963291</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0001548543146009586</v>
+        <v>0.0001536441672399578</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0001565412218245993</v>
+        <v>0.0001553702083509301</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0001565080528501567</v>
+        <v>0.0001553705554796845</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001547933032906295</v>
+        <v>0.0001536835635659882</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0001515718255507419</v>
+        <v>0.0001504846630440622</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0001470208704434445</v>
+        <v>0.000145951695397767</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0001413176887816877</v>
+        <v>0.0001402625021109632</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0001346395313784223</v>
+        <v>0.0001335949246675112</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0001271636490465986</v>
+        <v>0.0001261268045512716</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0001190672925991672</v>
+        <v>0.0001180359832461049</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.000110527712849083</v>
+        <v>0.0001095003022358759</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0001017221606092882</v>
+        <v>0.0001006976030044367</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>9.282788669273731e-05</v>
+        <v>9.180572703565185e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>8.402214191238094e-05</v>
+        <v>8.300251581338197e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>7.548217708116961e-05</v>
+        <v>7.446581082148751e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>6.738524301205394e-05</v>
+        <v>6.637345354382906e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>5.990859051798444e-05</v>
+        <v>5.890328546426707e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>5.321663907356235e-05</v>
+        <v>5.222008346638778e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>4.729358477857132e-05</v>
+        <v>4.630512476383017e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>4.199067174312608e-05</v>
+        <v>4.100431763572195e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>3.715604213842168e-05</v>
+        <v>3.616041203187581e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>3.265876239049086e-05</v>
+        <v>3.163839630406779e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>2.848867260210571e-05</v>
+        <v>2.743161766754457e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>2.467885038766452e-05</v>
+        <v>2.357937637965167e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>2.126242826961059e-05</v>
+        <v>2.012103105427749e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.827221980969831e-05</v>
+        <v>1.709558837813538e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>1.571646099469951e-05</v>
+        <v>1.451493722425196e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.35617838387574e-05</v>
+        <v>1.23450624747529e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.177079748985794e-05</v>
+        <v>1.054751035843796e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.030611109598773e-05</v>
+        <v>9.083827104107556e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>9.130333805131325e-06</v>
+        <v>7.915558940560048e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>8.206074765275479e-06</v>
+        <v>7.004252096595995e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>7.495943124406159e-06</v>
+        <v>6.311452801015171e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>6.962548030509324e-06</v>
+        <v>5.798707282617347e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>6.56849863157094e-06</v>
+        <v>5.427561770202293e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>6.276404075576969e-06</v>
+        <v>5.159562492569781e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>6.048873510513378e-06</v>
+        <v>4.95625567851958e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>5.848516084366129e-06</v>
+        <v>4.779187556851465e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>5.637940945121185e-06</v>
+        <v>4.589904356365205e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>5.379770730963437e-06</v>
+        <v>4.349966757285934e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>5.055293535622197e-06</v>
+        <v>4.04093087794455e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>4.701505864808778e-06</v>
+        <v>3.704030678506874e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>4.365751575227259e-06</v>
+        <v>3.391584757059398e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>4.095374523581718e-06</v>
+        <v>3.155911711688619e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>3.936233343936991e-06</v>
+        <v>3.04757395579802e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>3.903061249239877e-06</v>
+        <v>3.08033000122403e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>3.981064078887249e-06</v>
+        <v>3.233024051477935e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>4.154282337512189e-06</v>
+        <v>3.483122373182164e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>4.406756529748057e-06</v>
+        <v>3.808091232959538e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>4.722527160227977e-06</v>
+        <v>4.185396897432522e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>5.085634733585134e-06</v>
+        <v>4.592505633223689e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>5.480119754452718e-06</v>
+        <v>5.006883706955605e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>5.890022727463909e-06</v>
+        <v>5.405997385250843e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>6.299386952067802e-06</v>
+        <v>5.767317319300824e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>6.698384758989441e-06</v>
+        <v>6.077929519803346e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>7.096313404180228e-06</v>
+        <v>6.354923602153903e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>7.506190043558859e-06</v>
+        <v>6.621225042898451e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>7.941031833044039e-06</v>
+        <v>6.899759318582946e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>8.413855928554465e-06</v>
+        <v>7.21345190575335e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>8.937679486008843e-06</v>
+        <v>7.585228280955619e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>9.52551966132587e-06</v>
+        <v>8.038013920735709e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>1.019039361042425e-05</v>
+        <v>8.594734301639578e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>1.094531848922267e-05</v>
+        <v>9.278314900213185e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>1.180587089945544e-05</v>
+        <v>1.011267994349472e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.280464263863877e-05</v>
+        <v>1.112839335179472e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>1.398116672134076e-05</v>
+        <v>1.235872765675864e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>1.537499663769601e-05</v>
+        <v>1.383696338003589e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>1.702568587783824e-05</v>
+        <v>1.559638104327494e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>1.897278793190365e-05</v>
+        <v>1.767026116812689e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>2.125585629002611e-05</v>
+        <v>2.009188427624034e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>2.391444444234022e-05</v>
+        <v>2.289453088926471e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>2.698810587898057e-05</v>
+        <v>2.611148152884938e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>3.051639409008181e-05</v>
+        <v>2.977601671664378e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>3.453886256577849e-05</v>
+        <v>3.392141697429729e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>3.909506479620522e-05</v>
+        <v>3.85809628234593e-05</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>4.422455427149664e-05</v>
+        <v>4.378793478577923e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>4.996685130169676e-05</v>
+        <v>4.957558206117131e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>5.631556719960052e-05</v>
+        <v>5.593381613018635e-05</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>6.312729453091967e-05</v>
+        <v>6.272320389247734e-05</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>7.023317582575694e-05</v>
+        <v>6.978028762143445e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>7.746435361421518e-05</v>
+        <v>7.694160959044794e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>8.465197042639716e-05</v>
+        <v>8.404371207290798e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>9.162716879240572e-05</v>
+        <v>9.092313734220481e-05</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>9.822109124234362e-05</v>
+        <v>9.741642767172861e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0001042648803063109</v>
+        <v>0.0001033601253348669</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0001095896785144163</v>
+        <v>0.0001085907726050157</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0001140284528342265</v>
+        <v>0.0001129466835513054</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0001174936006408254</v>
+        <v>0.0001163433107913081</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0001200059115248857</v>
+        <v>0.0001188013716445437</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0001215939679284574</v>
+        <v>0.000120349151429517</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0001222863522935906</v>
+        <v>0.0001210149354647328</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0001221116470623353</v>
+        <v>0.000120827009068696</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0001210984346767416</v>
+        <v>0.0001198136575599113</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0001192752975788594</v>
+        <v>0.0001180031662568837</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0001166708182107389</v>
+        <v>0.000115423820478118</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>0.000113313613203873</v>
+        <v>0.0001121039387393695</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>0.000109254025748195</v>
+        <v>0.0001080929356006917</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0001046013381007547</v>
+        <v>0.0001034974542519825</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>9.94747307436044e-05</v>
+        <v>9.843374885736309e-05</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>9.399338415879635e-05</v>
+        <v>9.301807358095457e-05</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>8.827647882838301e-05</v>
+        <v>8.736668258687823e-05</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>8.24431952344167e-05</v>
+        <v>8.159583003925515e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>7.661271385894978e-05</v>
+        <v>7.58217701022065e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>7.090421518403468e-05</v>
+        <v>7.016075693985351e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>6.543687969172624e-05</v>
+        <v>6.472904471631984e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>6.031473792568115e-05</v>
+        <v>5.962831649208734e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>5.555505211032766e-05</v>
+        <v>5.487680217165475e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>5.114424788833449e-05</v>
+        <v>5.046307325319853e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>4.706871390011809e-05</v>
+        <v>4.637566564639052e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>4.33148387860949e-05</v>
+        <v>4.260311526090252e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>3.986901118668138e-05</v>
+        <v>3.913395800640639e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>3.671761974229398e-05</v>
+        <v>3.595672979257397e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>3.384705309334915e-05</v>
+        <v>3.305996652907706e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>3.124369988026332e-05</v>
+        <v>3.043220412558749e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>2.889395970130388e-05</v>
+        <v>2.806195339894796e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>2.678456448581048e-05</v>
+        <v>2.593696414754185e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>2.490263037277046e-05</v>
+        <v>2.404410635243018e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>2.323529490322376e-05</v>
+        <v>2.237020098524208e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>2.176969561821029e-05</v>
+        <v>2.090206901760663e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>2.049297005876997e-05</v>
+        <v>1.962653142115293e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>1.939225576594274e-05</v>
+        <v>1.853040916751008e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>1.845469028076893e-05</v>
+        <v>1.76005232283076e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>1.766741114428756e-05</v>
+        <v>1.682369457517368e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>1.701755589753905e-05</v>
+        <v>1.618674417973791e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>1.649226208156332e-05</v>
+        <v>1.567649301362939e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>1.60786672374003e-05</v>
+        <v>1.527976204847723e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>1.576390890608992e-05</v>
+        <v>1.498337225591051e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>1.553512462867208e-05</v>
+        <v>1.477414460755834e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>1.537945194618673e-05</v>
+        <v>1.463890007504981e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>1.528402839967378e-05</v>
+        <v>1.456445963001403e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>1.523599153017316e-05</v>
+        <v>1.453764424408009e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>1.522247887872479e-05</v>
+        <v>1.45452748888771e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>1.52306279863686e-05</v>
+        <v>1.457417253603414e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>1.52475763941445e-05</v>
+        <v>1.461115815718032e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>1.526046164309243e-05</v>
+        <v>1.464305272394474e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>1.52564212742523e-05</v>
+        <v>1.465667720795649e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>1.522259282866405e-05</v>
+        <v>1.463885258084468e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>1.514611384736758e-05</v>
+        <v>1.457639981423839e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>1.501412187140284e-05</v>
+        <v>1.445613987976674e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>1.481375444180974e-05</v>
+        <v>1.426489374905882e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>1.453214909962821e-05</v>
+        <v>1.398948239374373e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>1.415644338589837e-05</v>
+        <v>1.361672678545076e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>1.367397208823018e-05</v>
+        <v>1.313365136565269e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.308505638086335e-05</v>
+        <v>1.254067669245282e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.241083800405493e-05</v>
+        <v>1.185970079406489e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>1.167433306725577e-05</v>
+        <v>1.111455520561604e-05</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>1.089855767991671e-05</v>
+        <v>1.032907146223343e-05</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.010652795148861e-05</v>
+        <v>9.527081099044202e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>9.321259991422325e-06</v>
+        <v>8.732415651175507e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>8.5657699091687e-06</v>
+        <v>7.968906653754497e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>7.863073814178583e-06</v>
+        <v>7.260385641908317e-06</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>7.236187815902832e-06</v>
+        <v>6.630684150764121e-06</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>6.708128023792292e-06</v>
+        <v>6.103633715449054e-06</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>6.301910547297818e-06</v>
+        <v>5.703065871090271e-06</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>6.04055149587026e-06</v>
+        <v>5.452812152814917e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>5.947066978960466e-06</v>
+        <v>5.376704095750142e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>6.044237931675478e-06</v>
+        <v>5.498328654391281e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>6.337441504230438e-06</v>
+        <v>5.823172897693965e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>6.802992704658028e-06</v>
+        <v>6.32649935148666e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>7.414445760283869e-06</v>
+        <v>6.980699337712702e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>8.145354898432935e-06</v>
+        <v>7.758164178314726e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>8.969274346430385e-06</v>
+        <v>8.631285195235574e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>9.859758331601388e-06</v>
+        <v>9.57245371041809e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>1.079036108127109e-05</v>
+        <v>1.05540610458051e-05</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>1.173463682276467e-05</v>
+        <v>1.154849852333946e-05</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>1.266613978340728e-05</v>
+        <v>1.2528157464964e-05</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>1.355842419052407e-05</v>
+        <v>1.346542919262155e-05</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>1.438504427144022e-05</v>
+        <v>1.433270502825497e-05</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>1.511955425348087e-05</v>
+        <v>1.510237629380709e-05</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>1.57355083639712e-05</v>
+        <v>1.574683431122074e-05</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>1.620713875441794e-05</v>
+        <v>1.623918098328282e-05</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>1.652606899247971e-05</v>
+        <v>1.657074740050393e-05</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>1.670237651651531e-05</v>
+        <v>1.675220747575512e-05</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>1.674702941422133e-05</v>
+        <v>1.679516867520941e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>1.667099577329436e-05</v>
+        <v>1.671123846503983e-05</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>1.648524368143096e-05</v>
+        <v>1.651202431141937e-05</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>1.620074122632774e-05</v>
+        <v>1.620913368052108e-05</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>1.582845649568127e-05</v>
+        <v>1.581417403851797e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>1.537935757718814e-05</v>
+        <v>1.533875285158306e-05</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>1.486441255854492e-05</v>
+        <v>1.479447758588936e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>1.429458952744821e-05</v>
+        <v>1.41929557076099e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.368085657159459e-05</v>
+        <v>1.354579468291769e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.303418177868064e-05</v>
+        <v>1.286460197798576e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.236553323640295e-05</v>
+        <v>1.216098505898712e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.16858790324581e-05</v>
+        <v>1.14465513920948e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>1.100618725454332e-05</v>
+        <v>1.07329084434825e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.033742599035324e-05</v>
+        <v>1.003166367932118e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>9.69056332758702e-06</v>
+        <v>9.354424565786555e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>9.076567353939326e-06</v>
+        <v>8.712798569049645e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>8.505665754076033e-06</v>
+        <v>8.117605721413506e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>7.980360998227933e-06</v>
+        <v>7.571450130547622e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>7.498560700729691e-06</v>
+        <v>7.072049180256126e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>7.058111622539516e-06</v>
+        <v>6.617055535524169e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>6.656860524615613e-06</v>
+        <v>6.204121861336896e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>6.292654167916191e-06</v>
+        <v>5.830900822679454e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>5.963339313399458e-06</v>
+        <v>5.495045084536992e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>5.666762722023617e-06</v>
+        <v>5.194207311894656e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>5.400771154746877e-06</v>
+        <v>4.926040169737592e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>5.163211372527446e-06</v>
+        <v>4.688196323050952e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>4.951930136323533e-06</v>
+        <v>4.478328436819881e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>4.764774207093339e-06</v>
+        <v>4.294089176029525e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>4.599590345795079e-06</v>
+        <v>4.133131205665033e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>4.454225313386954e-06</v>
+        <v>3.993107190711551e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>4.326525870827175e-06</v>
+        <v>3.871669796154228e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>4.214338779073945e-06</v>
+        <v>3.766471686978208e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>4.115510799085475e-06</v>
+        <v>3.675165528168642e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>4.02788869181997e-06</v>
+        <v>3.595403984710678e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>3.949321685299256e-06</v>
+        <v>3.524842409458145e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>3.878202784524501e-06</v>
+        <v>3.461728600917591e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>3.814148589552581e-06</v>
+        <v>3.405643465834719e-06</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>3.756942877968873e-06</v>
+        <v>3.356350051067365e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>3.706369427358751e-06</v>
+        <v>3.313611403473361e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>3.662212015307591e-06</v>
+        <v>3.277190569910541e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>3.624254419400772e-06</v>
+        <v>3.246850597236741e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>3.592280417223668e-06</v>
+        <v>3.222354532309795e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>3.566073786361656e-06</v>
+        <v>3.203465421987536e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>3.545418304400112e-06</v>
+        <v>3.189946313127799e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>3.530097748924411e-06</v>
+        <v>3.181560252588418e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>3.519895897519931e-06</v>
+        <v>3.178070287227227e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>3.514596527772047e-06</v>
+        <v>3.179239463902061e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>3.513983417266134e-06</v>
+        <v>3.184830829470752e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>3.51784034358757e-06</v>
+        <v>3.194607430791136e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>3.525951084321722e-06</v>
+        <v>3.208332314721033e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>3.538099417053993e-06</v>
+        <v>3.22576852811832e-06</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>3.554069119369715e-06</v>
+        <v>3.246679117840765e-06</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>3.573643968854302e-06</v>
+        <v>3.270827130746259e-06</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>3.596607743093119e-06</v>
+        <v>3.297975613692616e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>3.622744219671541e-06</v>
+        <v>3.32788761353767e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>3.651837176174946e-06</v>
+        <v>3.360326177139258e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>3.683670390188707e-06</v>
+        <v>3.395054351355212e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>3.718027639298203e-06</v>
+        <v>3.431835183043366e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>3.754692701088809e-06</v>
+        <v>3.470431719061555e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>3.793449353145901e-06</v>
+        <v>3.510607006267612e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>3.834081373054853e-06</v>
+        <v>3.552124091519371e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>3.876372538401046e-06</v>
+        <v>3.594746021674668e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>3.920106626769851e-06</v>
+        <v>3.638235843591337e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>3.965067415746648e-06</v>
+        <v>3.682356604127211e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>4.011038682916812e-06</v>
+        <v>3.726871350140125e-06</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>4.057804205865718e-06</v>
+        <v>3.771543128487912e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>4.105147762178743e-06</v>
+        <v>3.816134986028406e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>4.152853129441264e-06</v>
+        <v>3.860409969619444e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>4.200704085238654e-06</v>
+        <v>3.904131126118857e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>4.248484407156294e-06</v>
+        <v>3.947061502384482e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>4.295977872779555e-06</v>
+        <v>3.988964145274151e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>4.342968259693817e-06</v>
+        <v>4.029602101645699e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>4.389500481109714e-06</v>
+        <v>4.069014676934969e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>4.438052224950418e-06</v>
+        <v>4.109814838758273e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>4.492424984001838e-06</v>
+        <v>4.156016024118585e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>4.556433504346847e-06</v>
+        <v>4.211645690844142e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>4.633892532068311e-06</v>
+        <v>4.280731296763176e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>4.7286168132491e-06</v>
+        <v>4.367300299703928e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>4.844421093972081e-06</v>
+        <v>4.475380157494631e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>4.985120120320125e-06</v>
+        <v>4.608998327963522e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>5.154528638376101e-06</v>
+        <v>4.772182268938835e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>5.356461394222878e-06</v>
+        <v>4.968959438248807e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>5.594733133943323e-06</v>
+        <v>5.203357293721675e-06</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>5.873158603620307e-06</v>
+        <v>5.479403293185673e-06</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>6.195552549336698e-06</v>
+        <v>5.801124894469038e-06</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>6.565729717175366e-06</v>
+        <v>6.172549555400005e-06</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>6.987504853218744e-06</v>
+        <v>6.597704733806371e-06</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>7.464692703551007e-06</v>
+        <v>7.080617887517692e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>8.00110801425317e-06</v>
+        <v>7.625316474360326e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>8.600565531409567e-06</v>
+        <v>8.235827952163997e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>9.266880001102584e-06</v>
+        <v>8.916179778756447e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.000386616941509e-05</v>
+        <v>9.670399411965911e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>1.081533878242995e-05</v>
+        <v>1.050251430962063e-05</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>1.170511258623003e-05</v>
+        <v>1.141655192954883e-05</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>1.267700232689821e-05</v>
+        <v>1.241653972957875e-05</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>1.373479368230907e-05</v>
+        <v>1.35064746465598e-05</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>1.48746801327345e-05</v>
+        <v>1.468238197698281e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>1.607515332662656e-05</v>
+        <v>1.592170048359164e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>1.731218690360019e-05</v>
+        <v>1.71992250752792e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>1.85617545032704e-05</v>
+        <v>1.848975066093847e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>1.979982976525215e-05</v>
+        <v>1.976807214946237e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>2.10023863291604e-05</v>
+        <v>2.100898444974383e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>2.214539783461014e-05</v>
+        <v>2.218728247067579e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>2.320483792121635e-05</v>
+        <v>2.327776112115121e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>2.415668022859398e-05</v>
+        <v>2.4255215310063e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>2.497689839635802e-05</v>
+        <v>2.509443994630413e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>2.564146606412344e-05</v>
+        <v>2.577022993876751e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>2.612635687150521e-05</v>
+        <v>2.625738019634609e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>2.640754445811831e-05</v>
+        <v>2.653068562793281e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>2.64614407102683e-05</v>
+        <v>2.656540643204544e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>2.628691393520314e-05</v>
+        <v>2.636064494885384e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>2.591559578605947e-05</v>
+        <v>2.595028859561903e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>2.538171019561187e-05</v>
+        <v>2.537097703131001e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>2.471948109663498e-05</v>
+        <v>2.465934991489586e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>2.396313242190339e-05</v>
+        <v>2.385204690534559e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>2.314688810419173e-05</v>
+        <v>2.298570766162823e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>2.230497207627459e-05</v>
+        <v>2.209697184271285e-05</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>2.147160827092661e-05</v>
+        <v>2.122247910756848e-05</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>2.068102062092239e-05</v>
+        <v>2.039886911516416e-05</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>1.996367552134951e-05</v>
+        <v>1.965870940372002e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>1.932445559149664e-05</v>
+        <v>1.900684184828441e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>1.875757980620122e-05</v>
+        <v>1.843655191344607e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>1.825723183764642e-05</v>
+        <v>1.794108680558242e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>1.781759535801542e-05</v>
+        <v>1.751369373107086e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>1.743285403949139e-05</v>
+        <v>1.714761989628882e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.709719155425782e-05</v>
+        <v>1.683611250761399e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>1.680479157449723e-05</v>
+        <v>1.657241877142319e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>1.654983777239315e-05</v>
+        <v>1.634978589409415e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>1.632651382012876e-05</v>
+        <v>1.616146108200432e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>1.612900338988725e-05</v>
+        <v>1.600069154153108e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>1.595149015385177e-05</v>
+        <v>1.586072447905186e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.578815778420551e-05</v>
+        <v>1.573480710094407e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>1.563318995313165e-05</v>
+        <v>1.561618661358514e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>1.548077033281337e-05</v>
+        <v>1.549811022335248e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>1.532508259543384e-05</v>
+        <v>1.537382513662351e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.516031041317624e-05</v>
+        <v>1.523657855977563e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>1.498063745822376e-05</v>
+        <v>1.507961769918627e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>1.478037426990869e-05</v>
+        <v>1.489633116780151e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>1.455824696462307e-05</v>
+        <v>1.468502919621969e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>1.431843560513921e-05</v>
+        <v>1.445010100277211e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>1.406545770344645e-05</v>
+        <v>1.419631192786894e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>1.380383077153415e-05</v>
+        <v>1.392842731192036e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>1.353807232139163e-05</v>
+        <v>1.365121249533657e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>1.327269986500823e-05</v>
+        <v>1.336943281852773e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>1.301223091437329e-05</v>
+        <v>1.308785362190402e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>1.276118298147616e-05</v>
+        <v>1.281124024587564e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>1.252407357830616e-05</v>
+        <v>1.254435803085276e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>1.230542021685265e-05</v>
+        <v>1.229197231724556e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>1.210974040910496e-05</v>
+        <v>1.205884844546422e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>1.194064410787335e-05</v>
+        <v>1.184896538274088e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>1.179721600676579e-05</v>
+        <v>1.166238109309118e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>1.167713316040644e-05</v>
+        <v>1.1497933862997e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>1.15780721756332e-05</v>
+        <v>1.135446159094673e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>1.149770965928397e-05</v>
+        <v>1.123080217542873e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>1.143372221819664e-05</v>
+        <v>1.112579351493137e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>1.138378645920912e-05</v>
+        <v>1.1038273507943e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>1.134563396193936e-05</v>
+        <v>1.096709681826586e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>1.131802679112768e-05</v>
+        <v>1.091143238171987e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>1.130064220650085e-05</v>
+        <v>1.087072824555386e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>1.129318928073703e-05</v>
+        <v>1.084444215916586e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>1.129537708651441e-05</v>
+        <v>1.083203187195392e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>1.130691469651116e-05</v>
+        <v>1.08329551333161e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>1.132751118340542e-05</v>
+        <v>1.084666969265041e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>1.135687561987542e-05</v>
+        <v>1.087263329935493e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>1.139471707859932e-05</v>
+        <v>1.09103037028277e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>1.144074463225528e-05</v>
+        <v>1.095913865246676e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>1.149466735352149e-05</v>
+        <v>1.101859589767016e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>1.155619431507612e-05</v>
+        <v>1.108813318783595e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>1.162503458959735e-05</v>
+        <v>1.116720827236218e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>1.170089724976335e-05</v>
+        <v>1.125527890064688e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>1.17834913682523e-05</v>
+        <v>1.135180282208811e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>1.187252601774237e-05</v>
+        <v>1.145623778608391e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>1.196771027091173e-05</v>
+        <v>1.156804154203232e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>1.206875320043858e-05</v>
+        <v>1.168667183933141e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>1.217536387900107e-05</v>
+        <v>1.18115864273792e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>1.228725137927738e-05</v>
+        <v>1.194224305557375e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>1.240412477394569e-05</v>
+        <v>1.20780994733131e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>1.252569313568419e-05</v>
+        <v>1.22186134299953e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>1.265166553717103e-05</v>
+        <v>1.236324267501839e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>1.278175105108439e-05</v>
+        <v>1.251144495778043e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>1.291565875010246e-05</v>
+        <v>1.266267802767944e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>1.30530977069034e-05</v>
+        <v>1.28163996341135e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>1.31937769941654e-05</v>
+        <v>1.297206752648064e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>1.333740568456663e-05</v>
+        <v>1.31291394541789e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>1.348374003521539e-05</v>
+        <v>1.328713418577301e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>1.363321886182712e-05</v>
+        <v>1.34464531784031e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>1.378679466905234e-05</v>
+        <v>1.360816219458852e-05</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>1.394543251440148e-05</v>
+        <v>1.377334323027659e-05</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>1.411009745538496e-05</v>
+        <v>1.394307828141468e-05</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>1.428175454951319e-05</v>
+        <v>1.411844934395012e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>1.44613688542966e-05</v>
+        <v>1.430053841383026e-05</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>1.46499054272456e-05</v>
+        <v>1.449042748700244e-05</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>1.484832932587061e-05</v>
+        <v>1.4689198559414e-05</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>1.505760560768206e-05</v>
+        <v>1.48979336270123e-05</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>1.527869933019035e-05</v>
+        <v>1.511771468574466e-05</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>1.551257555090591e-05</v>
+        <v>1.534962373155844e-05</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>1.576019932733916e-05</v>
+        <v>1.559474276040099e-05</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>1.602253571700052e-05</v>
+        <v>1.585415376821962e-05</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>1.630054977740039e-05</v>
+        <v>1.612893875096172e-05</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>1.659520656604893e-05</v>
+        <v>1.642017970457432e-05</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>1.690747114045709e-05</v>
+        <v>1.672895862500532e-05</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>1.723830855813505e-05</v>
+        <v>1.70563575082018e-05</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>1.758868387659319e-05</v>
+        <v>1.740345835011111e-05</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>1.795956215334196e-05</v>
+        <v>1.777134314668058e-05</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>1.835190844589176e-05</v>
+        <v>1.816109389385756e-05</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>1.876668781175302e-05</v>
+        <v>1.85737925875894e-05</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>1.920486530843616e-05</v>
+        <v>1.901052122382344e-05</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>1.966740599345158e-05</v>
+        <v>1.947236179850701e-05</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>2.015527492430972e-05</v>
+        <v>1.996039630758748e-05</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>2.0669437158521e-05</v>
+        <v>2.047570674701217e-05</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>2.121085775359581e-05</v>
+        <v>2.101937511272844e-05</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>2.17805017670446e-05</v>
+        <v>2.159248340068362e-05</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>2.237933425637777e-05</v>
+        <v>2.219611360682507e-05</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>2.300832027910575e-05</v>
+        <v>2.283134772710012e-05</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>2.366842489273896e-05</v>
+        <v>2.349926775745613e-05</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>2.436061315478782e-05</v>
+        <v>2.420095569384042e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>2.508585012276273e-05</v>
+        <v>2.493749353220036e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>2.584510085417413e-05</v>
+        <v>2.570996326848327e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>2.663933040653242e-05</v>
+        <v>2.651944689863651e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>2.746950383734804e-05</v>
+        <v>2.736702641860742e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>2.833658620413139e-05</v>
+        <v>2.825378382434334e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>2.924153801175326e-05</v>
+        <v>2.918079359663065e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>3.01850364040352e-05</v>
+        <v>3.014866246478301e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>3.116731334596939e-05</v>
+        <v>3.115726228981216e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>3.21885618013337e-05</v>
+        <v>3.220640055240848e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>3.324897473390602e-05</v>
+        <v>3.329588473326232e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>3.434874510746423e-05</v>
+        <v>3.442552231306402e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>3.548806588578623e-05</v>
+        <v>3.559512077250395e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>3.666713003264988e-05</v>
+        <v>3.680448759227246e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>3.788613051183309e-05</v>
+        <v>3.805343025305989e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>3.914526028711373e-05</v>
+        <v>3.934175623555664e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>4.044471232226969e-05</v>
+        <v>4.066927302045304e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>4.178467958107883e-05</v>
+        <v>4.203578808843942e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>4.316535502731906e-05</v>
+        <v>4.344110892020618e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>4.458693162476827e-05</v>
+        <v>4.488504299644365e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>4.604960233720432e-05</v>
+        <v>4.636739779784219e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>4.755356012840363e-05</v>
+        <v>4.788798080509067e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>4.909899796214699e-05</v>
+        <v>4.944659949888239e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>5.068610880221085e-05</v>
+        <v>5.104306135990624e-05</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>5.231508561237312e-05</v>
+        <v>5.267717386885259e-05</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>5.398617585445424e-05</v>
+        <v>5.434881423261773e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>5.570119478996516e-05</v>
+        <v>5.605986554159068e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>5.746372298101348e-05</v>
+        <v>5.781446945742338e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>5.927743516232458e-05</v>
+        <v>5.961688812865174e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>6.114600606862375e-05</v>
+        <v>6.147138370381164e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>6.307311043463641e-05</v>
+        <v>6.338221833143898e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>6.506242299508779e-05</v>
+        <v>6.535365416006961e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>6.711761848470333e-05</v>
+        <v>6.738995333823945e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>6.924237163820832e-05</v>
+        <v>6.949537801448432e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>7.144035719032809e-05</v>
+        <v>7.167419033734016e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>7.3715249875788e-05</v>
+        <v>7.393065245534284e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>7.607072442931339e-05</v>
+        <v>7.626902651702819e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>7.85104555856296e-05</v>
+        <v>7.869357467093217e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>8.103811807946194e-05</v>
+        <v>8.12085590655906e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>8.365738664553577e-05</v>
+        <v>8.381824184953938e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>8.637169663651059e-05</v>
+        <v>8.652663574637529e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>8.917578566779725e-05</v>
+        <v>8.932869084346069e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>9.20534324856567e-05</v>
+        <v>9.220793859802391e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>9.498771664417287e-05</v>
+        <v>9.514718194168051e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>9.796171769742979e-05</v>
+        <v>9.812922380604621e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>0.0001009585151995114</v>
+        <v>0.0001011368671227366</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>0.0001039611887045017</v>
+        <v>0.0001041529148233675</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>0.0001069528177664847</v>
+        <v>0.0001071601698395543</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>0.0001099164819395444</v>
+        <v>0.0001101414351029128</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>0.0001128352607777647</v>
+        <v>0.0001130795135450587</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>0.0001156924466209899</v>
+        <v>0.0001159574292263099</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>0.000118478952454395</v>
+        <v>0.0001187661256439335</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>0.0001211952295737332</v>
+        <v>0.0001215064585855542</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>0.0001238423316608991</v>
+        <v>0.000124179909843401</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>0.0001264213123977877</v>
+        <v>0.0001267879612097033</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>0.0001289332254662938</v>
+        <v>0.0001293320944766902</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>0.0001313791245483123</v>
+        <v>0.0001318137914365911</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>0.0001337600633257379</v>
+        <v>0.0001342345338816353</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>0.0001360770954804634</v>
+        <v>0.0001365958036040496</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>0.000138331274694388</v>
+        <v>0.0001388990823960679</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>0.0001405236546494043</v>
+        <v>0.0001411458520499171</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>0.0001426552890274071</v>
+        <v>0.0001433375943578266</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>0.0001447272315102913</v>
+        <v>0.0001454757911120254</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>0.0001467382717909528</v>
+        <v>0.0001475591448164407</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>0.0001486747253057811</v>
+        <v>0.0001495710444928203</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>0.0001505186342986026</v>
+        <v>0.0001514896333626405</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>0.0001522520372321933</v>
+        <v>0.0001532930500057355</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>0.0001538569725693299</v>
+        <v>0.0001549594330019392</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>0.0001553154787727885</v>
+        <v>0.0001564669209310857</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>0.0001566095943053456</v>
+        <v>0.0001577936523730089</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>0.0001577213576297776</v>
+        <v>0.0001589177659075429</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>0.0001586328072088609</v>
+        <v>0.0001598174001145215</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>0.0001593259815053716</v>
+        <v>0.000160470693573779</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>0.0001597829185751525</v>
+        <v>0.0001608557850814737</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>0.0001599828669424431</v>
+        <v>0.0001609522963392103</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>0.0001598956249064776</v>
+        <v>0.0001607448727558383</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>0.0001594889915004415</v>
+        <v>0.0001602192225431915</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>0.0001587307657575199</v>
+        <v>0.0001593610539131033</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>0.0001575887467108983</v>
+        <v>0.0001581560750774075</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>0.0001560328845855224</v>
+        <v>0.0001565915767731019</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>0.0001540966612943003</v>
+        <v>0.0001547015868513661</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>0.0001518860443665486</v>
+        <v>0.0001525734572389586</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>0.000149510953073737</v>
+        <v>0.0001502974469634909</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>0.0001470813066873355</v>
+        <v>0.0001479638150525739</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>0.0001446926940809069</v>
+        <v>0.0001456508808527079</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>0.0001423560364294385</v>
+        <v>0.0001433664209852027</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>0.00014005127103058</v>
+        <v>0.0001410923971835053</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>0.0001377582888893894</v>
+        <v>0.0001388107326113882</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>0.0001354569810109249</v>
+        <v>0.000136503350432624</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>0.0001331272384002446</v>
+        <v>0.0001341521738109853</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>0.0001307489520624067</v>
+        <v>0.0001317391259102446</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>0.0001283020130024693</v>
+        <v>0.0001292461298941747</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>0.0001257663122254907</v>
+        <v>0.000126655108926548</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>0.0001231217407365315</v>
+        <v>0.0001239479861711398</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>0.0001203481895406421</v>
+        <v>0.0001211066847917147</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>0.0001174294982349807</v>
+        <v>0.0001181170591923945</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>0.0001143835857829688</v>
+        <v>0.0001149988933846958</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>0.0001112457970585134</v>
+        <v>0.0001117893207139437</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>0.0001080516173693195</v>
+        <v>0.000108525614342137</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>0.0001048365320231042</v>
+        <v>0.0001052450474312865</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>0.0001016360263275814</v>
+        <v>0.0001019848931434</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>9.848558559046538e-05</v>
+        <v>9.878242464048524e-05</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>9.542069511947007e-05</v>
+        <v>9.567491508455005e-05</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>9.247684022230958e-05</v>
+        <v>9.269963763760223e-05</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>8.968892646694583e-05</v>
+        <v>8.989324118056074e-05</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>8.707048698534935e-05</v>
+        <v>8.726936011661802e-05</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>8.460794710574587e-05</v>
+        <v>8.48124383558591e-05</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>8.228598498457046e-05</v>
+        <v>8.250503840157583e-05</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>8.008927877825826e-05</v>
+        <v>8.032972275706021e-05</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>7.800250664324436e-05</v>
+        <v>7.826905392560406e-05</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>7.601034673596385e-05</v>
+        <v>7.630559441049929e-05</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>7.409747721285185e-05</v>
+        <v>7.442190671503781e-05</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>7.224857623034341e-05</v>
+        <v>7.260055334251149e-05</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>7.044832194487366e-05</v>
+        <v>7.082409679621227e-05</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>6.86813925128777e-05</v>
+        <v>6.907509957943198e-05</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>6.693246609079063e-05</v>
+        <v>6.733612419546258e-05</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>6.518622083504752e-05</v>
+        <v>6.558973314759591e-05</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>6.342733490208351e-05</v>
+        <v>6.381848893912392e-05</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>6.164050560708726e-05</v>
+        <v>6.200497541077938e-05</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>5.982838569581675e-05</v>
+        <v>6.01517736821915e-05</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>5.804489842453529e-05</v>
+        <v>5.831856574248859e-05</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>5.635305887432705e-05</v>
+        <v>5.657515930604503e-05</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>5.481588212627616e-05</v>
+        <v>5.499136208723517e-05</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>5.349638326146681e-05</v>
+        <v>5.363698180043339e-05</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>5.245757736098316e-05</v>
+        <v>5.258182616001408e-05</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>5.176247950590934e-05</v>
+        <v>5.18957028803516e-05</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>5.142373463290699e-05</v>
+        <v>5.159290131679088e-05</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>5.119699941849496e-05</v>
+        <v>5.140445639575825e-05</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>5.081723847916235e-05</v>
+        <v>5.103828057313612e-05</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>5.029720947159457e-05</v>
+        <v>5.050703615716304e-05</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>4.972865324334887e-05</v>
+        <v>4.991003316225732e-05</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>4.920331615199127e-05</v>
+        <v>4.934658764753635e-05</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>4.881294455509126e-05</v>
+        <v>4.891601567212128e-05</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>4.864928481021509e-05</v>
+        <v>4.87176332951297e-05</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>4.880408327493083e-05</v>
+        <v>4.885075657568137e-05</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>4.936557696633198e-05</v>
+        <v>4.941086139190582e-05</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>5.03341718112652e-05</v>
+        <v>5.039731231967143e-05</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>5.161829724576159e-05</v>
+        <v>5.17088264273992e-05</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>5.312204373246253e-05</v>
+        <v>5.323937275656668e-05</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>5.47495017340093e-05</v>
+        <v>5.488292034865137e-05</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>5.640844770949311e-05</v>
+        <v>5.6538635846985e-05</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>5.803299099642009e-05</v>
+        <v>5.814281773144243e-05</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>5.956869688696994e-05</v>
+        <v>5.96479184560173e-05</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>6.096117768693292e-05</v>
+        <v>6.100645676831816e-05</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>6.215604570209939e-05</v>
+        <v>6.217095141595368e-05</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>6.309917901578977e-05</v>
+        <v>6.309414331443064e-05</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>6.375735913820783e-05</v>
+        <v>6.374624690462733e-05</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>6.413299405074602e-05</v>
+        <v>6.412725739263731e-05</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>6.423196714944391e-05</v>
+        <v>6.424007514198855e-05</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>6.406016183034113e-05</v>
+        <v>6.408760051620905e-05</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>6.362346148947729e-05</v>
+        <v>6.367273387882671e-05</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>6.292849110524754e-05</v>
+        <v>6.299922588748168e-05</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>6.199303878388709e-05</v>
+        <v>6.208362677871981e-05</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>6.084352035308257e-05</v>
+        <v>6.095237928544452e-05</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>5.950657556713976e-05</v>
+        <v>5.963218289354739e-05</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>5.800884418036439e-05</v>
+        <v>5.814973708891999e-05</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>5.637696594706223e-05</v>
+        <v>5.653174135745391e-05</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>5.463758062153911e-05</v>
+        <v>5.480489518504074e-05</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>5.281732795810075e-05</v>
+        <v>5.299589805757209e-05</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>5.094284771105292e-05</v>
+        <v>5.113144946093949e-05</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>4.904072763595019e-05</v>
+        <v>4.923819669497973e-05</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>4.713156767524423e-05</v>
+        <v>4.733677767784792e-05</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>4.522449858956238e-05</v>
+        <v>4.543631983297036e-05</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>4.33273554682278e-05</v>
+        <v>4.354465024535812e-05</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>4.144797340056368e-05</v>
+        <v>4.166959600002229e-05</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>3.959418747589317e-05</v>
+        <v>3.981898418197397e-05</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>3.777383278353945e-05</v>
+        <v>3.800064187622422e-05</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>3.599474441282735e-05</v>
+        <v>3.622239616778583e-05</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>3.426475745307495e-05</v>
+        <v>3.449207414166477e-05</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>3.259170699361211e-05</v>
+        <v>3.281750288287883e-05</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>3.098342812375553e-05</v>
+        <v>3.120650947643261e-05</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>2.944775593283458e-05</v>
+        <v>2.966692100734342e-05</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>2.799252551016787e-05</v>
+        <v>2.820656456061777e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>2.662557194508007e-05</v>
+        <v>2.683326722126826e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>2.535472364327225e-05</v>
+        <v>2.55548495093627e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>2.418463024727767e-05</v>
+        <v>2.437600962601863e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>2.311168624612293e-05</v>
+        <v>2.32933372028031e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>2.213096337811665e-05</v>
+        <v>2.230212260820026e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>2.123753338156748e-05</v>
+        <v>2.13976562106943e-05</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>2.042646799478404e-05</v>
+        <v>2.057522837876934e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.969283895607495e-05</v>
+        <v>1.983012948090958e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.903171800374886e-05</v>
+        <v>1.915764988559917e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.843817687611439e-05</v>
+        <v>1.855307996132227e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.790728731148018e-05</v>
+        <v>1.801171007656303e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>1.743412104815485e-05</v>
+        <v>1.752883059980564e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>1.701374982444705e-05</v>
+        <v>1.709973189953425e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>1.664124537866539e-05</v>
+        <v>1.671970434423301e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>1.631167944911851e-05</v>
+        <v>1.638403830238609e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>1.602047189426678e-05</v>
+        <v>1.608828033172164e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>1.576573993121314e-05</v>
+        <v>1.582996203526863e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>1.554686025106382e-05</v>
+        <v>1.560754189055932e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>1.536321665222718e-05</v>
+        <v>1.541948360554518e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>1.521419293311153e-05</v>
+        <v>1.526425088817772e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>1.509917289212524e-05</v>
+        <v>1.514030744640844e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>1.501754032767661e-05</v>
+        <v>1.504611698818884e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>1.496867903817399e-05</v>
+        <v>1.498014322147039e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>1.495197282202572e-05</v>
+        <v>1.494084985420461e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>1.49625119228315e-05</v>
+        <v>1.492342201908e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>1.497279819234287e-05</v>
+        <v>1.490579626432656e-05</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>1.494793139382135e-05</v>
+        <v>1.486025687442089e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>1.485300699697361e-05</v>
+        <v>1.475908485526436e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>1.465312659199737e-05</v>
+        <v>1.457456687696298e-05</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>1.436844504720002e-05</v>
+        <v>1.432993863208827e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>1.418983393884649e-05</v>
+        <v>1.420448473935036e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.411796283420685e-05</v>
+        <v>1.417739516742668e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.399856429186104e-05</v>
+        <v>1.406854349725884e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>1.375780986026221e-05</v>
+        <v>1.379631697629205e-05</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>1.345830293042484e-05</v>
+        <v>1.34452514908025e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>1.317526509364291e-05</v>
+        <v>1.311524955088056e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.297966384569349e-05</v>
+        <v>1.290043137015361e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.287227503668902e-05</v>
+        <v>1.279951053518311e-05</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.279628886194055e-05</v>
+        <v>1.273292845298637e-05</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.269691045224317e-05</v>
+        <v>1.262442364859274e-05</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.256063153948864e-05</v>
+        <v>1.246005489780698e-05</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.239969549767117e-05</v>
+        <v>1.226475191158161e-05</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.222673068465636e-05</v>
+        <v>1.206402308250574e-05</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.205024884882515e-05</v>
+        <v>1.187553384750787e-05</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.186751253797578e-05</v>
+        <v>1.169551769042118e-05</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.167388032090156e-05</v>
+        <v>1.151658063831618e-05</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.14647107663958e-05</v>
+        <v>1.133132871826336e-05</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.123536244325178e-05</v>
+        <v>1.113236795733322e-05</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.098119392026282e-05</v>
+        <v>1.091230438259625e-05</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.069756376622221e-05</v>
+        <v>1.066374402112295e-05</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>1.037983054992326e-05</v>
+        <v>1.037929289998383e-05</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>1.002335284015926e-05</v>
+        <v>1.005155704624937e-05</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>9.628663716145413e-06</v>
+        <v>9.678575637925032e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>9.236390202642632e-06</v>
+        <v>9.300485837166883e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>8.90588033588942e-06</v>
+        <v>8.977081560629438e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>8.696587796133852e-06</v>
+        <v>8.768267649441738e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>8.667966263624035e-06</v>
+        <v>8.733948944732833e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>8.879459154918953e-06</v>
+        <v>8.9340201484012e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>9.369788801871182e-06</v>
+        <v>9.407906143599515e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>1.011349871762471e-05</v>
+        <v>1.013163123359302e-05</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.107274466484923e-05</v>
+        <v>1.106898218628286e-05</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>1.220968240621441e-05</v>
+        <v>1.218374576957018e-05</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>1.348646770438995e-05</v>
+        <v>1.343970875135613e-05</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.486525632204554e-05</v>
+        <v>1.480065789954186e-05</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.630820402185087e-05</v>
+        <v>1.623037998202851e-05</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>1.777746656647561e-05</v>
+        <v>1.769266176671723e-05</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>1.923466127756432e-05</v>
+        <v>1.915056364024057e-05</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>2.063537010646877e-05</v>
+        <v>2.055900400204025e-05</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>2.193138501082154e-05</v>
+        <v>2.18677883788069e-05</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>2.307443928534097e-05</v>
+        <v>2.302664315830795e-05</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>2.401626622473745e-05</v>
+        <v>2.398529472830277e-05</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>2.470887968306735e-05</v>
+        <v>2.469375669352498e-05</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>2.513582346148005e-05</v>
+        <v>2.513432080638935e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>2.534061807209558e-05</v>
+        <v>2.535067876801447e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>2.537350243239699e-05</v>
+        <v>2.539340011156375e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.528471545986784e-05</v>
+        <v>2.531305437020118e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>2.512423548599878e-05</v>
+        <v>2.515994942061515e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>2.492275649989328e-05</v>
+        <v>2.49650295773702e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>2.467877005286167e-05</v>
+        <v>2.472690443019407e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>2.438770860069248e-05</v>
+        <v>2.444111190658254e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>2.404500459917424e-05</v>
+        <v>2.410318993403135e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>2.364609050409548e-05</v>
+        <v>2.370867644003632e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>2.318639877124472e-05</v>
+        <v>2.325310935209317e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>2.266237477629982e-05</v>
+        <v>2.273302957673097e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>2.207884815889101e-05</v>
+        <v>2.215328000076601e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>2.144478909251792e-05</v>
+        <v>2.152280340943832e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>2.076919703910797e-05</v>
+        <v>2.085057158897733e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>2.006107146058856e-05</v>
+        <v>2.014555632561247e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.932941181888711e-05</v>
+        <v>1.941672940557317e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.858321757593104e-05</v>
+        <v>1.867306261508887e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.783148819364776e-05</v>
+        <v>1.792352774038898e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.708322313396466e-05</v>
+        <v>1.717709656770295e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.634742185880918e-05</v>
+        <v>1.644274088326021e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.563308383010873e-05</v>
+        <v>1.572943247329018e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.49492085097907e-05</v>
+        <v>1.50461431240223e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.430438525921791e-05</v>
+        <v>1.440143673710244e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>1.370149927491547e-05</v>
+        <v>1.379820387183043e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>1.313925571026495e-05</v>
+        <v>1.323517763125274e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>1.261626370721394e-05</v>
+        <v>1.271099562578029e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>1.213113240771005e-05</v>
+        <v>1.222429546582399e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>1.16824709537009e-05</v>
+        <v>1.177371476179477e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>1.12688884871341e-05</v>
+        <v>1.135789112410354e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>1.088899414995725e-05</v>
+        <v>1.097546216316124e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>1.054139708411796e-05</v>
+        <v>1.062506548937877e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>1.022470643156384e-05</v>
+        <v>1.030533871316706e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>9.937531334242753e-06</v>
+        <v>1.001491944493729e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>9.678480934101537e-06</v>
+        <v>9.75244529509959e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>9.446164373088785e-06</v>
+        <v>9.516553874065888e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>9.239190793151219e-06</v>
+        <v>9.305882792246195e-06</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>9.056169336237242e-06</v>
+        <v>9.119069660052246e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>8.895709144293899e-06</v>
+        <v>8.954752087894388e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>8.756419359268991e-06</v>
+        <v>8.81156768618373e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>8.636909123110118e-06</v>
+        <v>8.688154065331192e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>8.535787577764897e-06</v>
+        <v>8.583148835747697e-06</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>8.451663865180936e-06</v>
+        <v>8.495189607844165e-06</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>8.383147127305838e-06</v>
+        <v>8.422913992031514e-06</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>8.328846506087222e-06</v>
+        <v>8.364959598720666e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>8.287371143472682e-06</v>
+        <v>8.319964038322542e-06</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>8.257330181409841e-06</v>
+        <v>8.286564921248059e-06</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>8.237332761846299e-06</v>
+        <v>8.263399857908144e-06</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>8.225988026729666e-06</v>
+        <v>8.24910645871371e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>8.221905118007553e-06</v>
+        <v>8.24232233407568e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>8.223693177627567e-06</v>
+        <v>8.241685094404976e-06</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>8.229961347537318e-06</v>
+        <v>8.245832350112516e-06</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>8.239318769684413e-06</v>
+        <v>8.25340171160922e-06</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>8.250374586016462e-06</v>
+        <v>8.263030789306011e-06</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>8.261737938481071e-06</v>
+        <v>8.273357193613805e-06</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>8.272017969025854e-06</v>
+        <v>8.283018534943532e-06</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>8.279823819598415e-06</v>
+        <v>8.290652423706099e-06</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>8.283764632146367e-06</v>
+        <v>8.294896470312437e-06</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>8.282449548617314e-06</v>
+        <v>8.294388285173459e-06</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>8.274487710958866e-06</v>
+        <v>8.287765478700089e-06</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>8.258497272158031e-06</v>
+        <v>8.273674399105266e-06</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>8.234243383808098e-06</v>
+        <v>8.251873613325569e-06</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>8.203749985250913e-06</v>
+        <v>8.224311983920358e-06</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>8.169304936404485e-06</v>
+        <v>8.193194291289484e-06</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>8.133196097186827e-06</v>
+        <v>8.160725315832792e-06</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>8.097711327515952e-06</v>
+        <v>8.129109837950136e-06</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>8.06513848730987e-06</v>
+        <v>8.100552638041368e-06</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>8.037765436486593e-06</v>
+        <v>8.077258496506333e-06</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>8.017880034964135e-06</v>
+        <v>8.061432193744885e-06</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>8.007770142660505e-06</v>
+        <v>8.05527851015687e-06</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>8.009723619493711e-06</v>
+        <v>8.061002226142132e-06</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>8.026028325381785e-06</v>
+        <v>8.080808122100552e-06</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>8.058972120242677e-06</v>
+        <v>8.116900978431906e-06</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>8.11084286399453e-06</v>
+        <v>8.171485575536182e-06</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>8.183928416555147e-06</v>
+        <v>8.246766693813019e-06</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>8.280516637842721e-06</v>
+        <v>8.344949113662451e-06</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>8.402895387775209e-06</v>
+        <v>8.468237615484269e-06</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>8.55335252627062e-06</v>
+        <v>8.618836979678323e-06</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>8.734175913246965e-06</v>
+        <v>8.798951986644463e-06</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>8.947653408622257e-06</v>
+        <v>9.010787416782538e-06</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>9.196072872314509e-06</v>
+        <v>9.256548050492398e-06</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>9.481722164241729e-06</v>
+        <v>9.538438668173893e-06</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>9.806889144321931e-06</v>
+        <v>9.858664050226874e-06</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.017386167247313e-05</v>
+        <v>1.021942897705119e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>1.058492760861334e-05</v>
+        <v>1.06229382290467e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>1.104237481266056e-05</v>
+        <v>1.107139658661324e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>1.154849114453282e-05</v>
+        <v>1.156700883015067e-05</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>1.210556446414811e-05</v>
+        <v>1.211197974005883e-05</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>1.271550883970184e-05</v>
+        <v>1.270820004511704e-05</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>1.337612352935362e-05</v>
+        <v>1.335410330081325e-05</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>1.408265858709134e-05</v>
+        <v>1.404598127710944e-05</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>1.483032607858854e-05</v>
+        <v>1.478009382701771e-05</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>1.561433806951876e-05</v>
+        <v>1.555270080355019e-05</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>1.642990662555554e-05</v>
+        <v>1.636006205971894e-05</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>1.727224381237244e-05</v>
+        <v>1.719843744853609e-05</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>1.8136561695643e-05</v>
+        <v>1.806408682301374e-05</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>1.901807234104076e-05</v>
+        <v>1.895327003616397e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>1.991198781423927e-05</v>
+        <v>1.98622469409989e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>2.081307635696376e-05</v>
+        <v>2.078660866596637e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>2.171258149830027e-05</v>
+        <v>2.171663553568598e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>2.260006592969966e-05</v>
+        <v>2.264007529982406e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>2.346508199103383e-05</v>
+        <v>2.354466011097252e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>2.429718202217466e-05</v>
+        <v>2.441812212172329e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>2.508591836299406e-05</v>
+        <v>2.524819348466831e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>2.582084335336389e-05</v>
+        <v>2.602260635239947e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>2.649150933315605e-05</v>
+        <v>2.672909287750871e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>2.708746864224243e-05</v>
+        <v>2.735538521258797e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>2.759827362049447e-05</v>
+        <v>2.788921551022868e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>2.801347660778541e-05</v>
+        <v>2.831831592302419e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>2.832262994398555e-05</v>
+        <v>2.863041860356476e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>2.851528596896795e-05</v>
+        <v>2.881325570444352e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>2.858099702260378e-05</v>
+        <v>2.885455937825169e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>2.851184586009507e-05</v>
+        <v>2.874529781471061e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>2.83155837766634e-05</v>
+        <v>2.849647701182768e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>2.800595187242655e-05</v>
+        <v>2.812676306625569e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>2.759670327616321e-05</v>
+        <v>2.765483745757406e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>2.710159111665206e-05</v>
+        <v>2.70993816653622e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>2.653436852267179e-05</v>
+        <v>2.647907716919953e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>2.590878862300111e-05</v>
+        <v>2.581260544866548e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>2.523860454641869e-05</v>
+        <v>2.511864798333945e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>2.453756942170322e-05</v>
+        <v>2.441588625280087e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>2.381933885370566e-05</v>
+        <v>2.372260910789974e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>2.309545299031325e-05</v>
+        <v>2.304858862622796e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>2.237540506958598e-05</v>
+        <v>2.239535608106082e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>2.166860451974665e-05</v>
+        <v>2.176410532950638e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>2.0984460769018e-05</v>
+        <v>2.115603022867269e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>2.033238324562281e-05</v>
+        <v>2.057232463566781e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>1.972178137778384e-05</v>
+        <v>2.001418240759982e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>1.916206459372386e-05</v>
+        <v>1.948279740157675e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>1.866264232166564e-05</v>
+        <v>1.897936347470668e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>1.823290636093005e-05</v>
+        <v>1.850507381650374e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>1.787650142686381e-05</v>
+        <v>1.806090397851658e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>1.758308501829942e-05</v>
+        <v>1.764729982639424e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>1.734022731641299e-05</v>
+        <v>1.72646281805569e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>1.713549850238061e-05</v>
+        <v>1.691325586142471e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>1.695646875737837e-05</v>
+        <v>1.659354968941786e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>1.679070826258239e-05</v>
+        <v>1.630587648495652e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>1.662578719916875e-05</v>
+        <v>1.605060306846083e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>1.645116716813062e-05</v>
+        <v>1.582813254883345e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>1.62708457019468e-05</v>
+        <v>1.563914691906702e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>1.609555996898041e-05</v>
+        <v>1.548445747774585e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>1.593608404912154e-05</v>
+        <v>1.536487623163297e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>1.580319202226024e-05</v>
+        <v>1.528121518749143e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>1.570765796828659e-05</v>
+        <v>1.523428635208427e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>1.566010034439809e-05</v>
+        <v>1.522492688832241e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>1.566615565381927e-05</v>
+        <v>1.525477928364164e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>1.572554645364135e-05</v>
+        <v>1.532644200497593e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>1.583765155971569e-05</v>
+        <v>1.544256908445602e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>1.600184978789297e-05</v>
+        <v>1.560581455421191e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>1.621751995402469e-05</v>
+        <v>1.581883244637447e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>1.648404087396184e-05</v>
+        <v>1.608427679307403e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>1.680079136355553e-05</v>
+        <v>1.640480162644104e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>1.716708230825982e-05</v>
+        <v>1.67828905932995e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>1.758060517911864e-05</v>
+        <v>1.721696547078724e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.803739970964628e-05</v>
+        <v>1.770130509242044e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>1.853343123754448e-05</v>
+        <v>1.823000168963631e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>1.906466510051503e-05</v>
+        <v>1.87971474938721e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>1.962706663625968e-05</v>
+        <v>1.939683473656503e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>2.021660118248019e-05</v>
+        <v>2.002315564915232e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>2.082923407687833e-05</v>
+        <v>2.067020246307119e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>2.146093065715587e-05</v>
+        <v>2.133206740975888e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>2.210774666650955e-05</v>
+        <v>2.200316756406072e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>2.276639953824277e-05</v>
+        <v>2.268029757388227e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>2.343390076687289e-05</v>
+        <v>2.336130870262523e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>2.41072631810446e-05</v>
+        <v>2.404405700745375e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>2.478349960940254e-05</v>
+        <v>2.472639854553192e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>2.545962288059143e-05</v>
+        <v>2.540618937402389e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>2.613264582325591e-05</v>
+        <v>2.608128555009378e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>2.679958126604066e-05</v>
+        <v>2.674954313090571e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>2.745744203759037e-05</v>
+        <v>2.740881817362381e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>2.810318266466193e-05</v>
+        <v>2.805690522223556e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>2.872806568230351e-05</v>
+        <v>2.868559331207561e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>2.931296509289595e-05</v>
+        <v>2.92757107417074e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>2.983764932228185e-05</v>
+        <v>2.9806919337604e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>3.028188679630385e-05</v>
+        <v>3.025888092623848e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>3.062544594080446e-05</v>
+        <v>3.061125733408389e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>3.084809518162635e-05</v>
+        <v>3.084371038761331e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>3.092960294461208e-05</v>
+        <v>3.093590191329979e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>3.084973765560424e-05</v>
+        <v>3.086749373761641e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>3.058827742768302e-05</v>
+        <v>3.061815729274912e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>3.013355558371383e-05</v>
+        <v>3.01760472227809e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>2.949815548125209e-05</v>
+        <v>2.955336412600838e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>2.869892755592363e-05</v>
+        <v>2.876653976844481e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>2.775272224335946e-05</v>
+        <v>2.783200591610857e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>2.66763976810401e-05</v>
+        <v>2.676620202252916e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>2.551352473844466e-05</v>
+        <v>2.561223054235043e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>2.439419372714323e-05</v>
+        <v>2.449955229973891e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>2.346597992383305e-05</v>
+        <v>2.357508053236547e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>2.287645860521025e-05</v>
+        <v>2.29857284778999e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>2.277320393295315e-05</v>
+        <v>2.28784082741748e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>2.322917372787555e-05</v>
+        <v>2.332643159680787e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>2.404062082276334e-05</v>
+        <v>2.413017238713417e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>2.493967063750247e-05</v>
+        <v>2.502675024869361e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>2.566357191615338e-05</v>
+        <v>2.57582012557569e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>2.608265379979971e-05</v>
+        <v>2.619426877858461e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>2.62093895847499e-05</v>
+        <v>2.634110129375329e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>2.606319111046306e-05</v>
+        <v>2.621150567835306e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>2.566347021639832e-05</v>
+        <v>2.581828880947403e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>2.502964158276731e-05</v>
+        <v>2.517426102394377e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>2.42005932481586e-05</v>
+        <v>2.431594915878604e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>2.328118404643257e-05</v>
+        <v>2.336022553374627e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>2.239022942847456e-05</v>
+        <v>2.244096015864488e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>2.164535154560052e-05</v>
+        <v>2.169065982734349e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>2.108409623370572e-05</v>
+        <v>2.11503527864023e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>2.061475376337172e-05</v>
+        <v>2.071340675025776e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>2.013387275489784e-05</v>
+        <v>2.025977586523824e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>1.953996172637448e-05</v>
+        <v>1.967194654796256e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>1.877939629814132e-05</v>
+        <v>1.88942515222735e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>1.784802217145716e-05</v>
+        <v>1.793494093502781e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>1.674396586826955e-05</v>
+        <v>1.68052117111057e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>1.547392582155372e-05</v>
+        <v>1.55219073688917e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>1.407591149593252e-05</v>
+        <v>1.412249701041712e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>1.259507954128463e-05</v>
+        <v>1.264915781852624e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>1.107658660748873e-05</v>
+        <v>1.114406697606333e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>9.5655893444235e-06</v>
+        <v>9.649401665872658e-06</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>8.107244401967628e-06</v>
+        <v>8.207339070798487e-06</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>6.746708429999791e-06</v>
+        <v>6.860056373685089e-06</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>5.52913807839867e-06</v>
+        <v>5.649730757376734e-06</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>4.499689997043839e-06</v>
+        <v>4.618539404718589e-06</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>3.702888027188465e-06</v>
+        <v>3.808102946075064e-06</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>3.139119440736993e-06</v>
+        <v>3.221224087848268e-06</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>2.73655568523355e-06</v>
+        <v>2.797192027793232e-06</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>2.417184202351539e-06</v>
+        <v>2.469769258315528e-06</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>2.134974753926749e-06</v>
+        <v>2.195167780553874e-06</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>1.894827303633289e-06</v>
+        <v>1.96534928501307e-06</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>1.704910801429138e-06</v>
+        <v>1.775681569285936e-06</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>1.563988531116055e-06</v>
+        <v>1.62313157232826e-06</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>1.466614093976107e-06</v>
+        <v>1.505381958843525e-06</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>1.407321361793225e-06</v>
+        <v>1.420118747923518e-06</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>1.380644206351341e-06</v>
+        <v>1.365027958660025e-06</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>1.381116499434387e-06</v>
+        <v>1.337795610144832e-06</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>1.40327537611795e-06</v>
+        <v>1.336108140741016e-06</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>1.442764227348602e-06</v>
+        <v>1.357794121779003e-06</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>1.497938239438085e-06</v>
+        <v>1.401030539031306e-06</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>1.567560510154994e-06</v>
+        <v>1.464046787181703e-06</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>1.650394137267924e-06</v>
+        <v>1.545072260913975e-06</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>1.745202218545473e-06</v>
+        <v>1.642336354911898e-06</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>1.850747851756236e-06</v>
+        <v>1.754068463859252e-06</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>1.965794134668809e-06</v>
+        <v>1.878497982439815e-06</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.089104165051788e-06</v>
+        <v>2.013854305337366e-06</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.219441040673769e-06</v>
+        <v>2.158366827235683e-06</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.355567859303347e-06</v>
+        <v>2.310264942818544e-06</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.49624771870912e-06</v>
+        <v>2.467778046769729e-06</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.640243716659682e-06</v>
+        <v>2.629135533773016e-06</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.78631895092363e-06</v>
+        <v>2.792566798512183e-06</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>2.93323651926956e-06</v>
+        <v>2.95630123567101e-06</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>3.079759519466068e-06</v>
+        <v>3.118568239933274e-06</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>3.224651049281749e-06</v>
+        <v>3.277597205982754e-06</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>3.366674206485199e-06</v>
+        <v>3.431617528503228e-06</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>3.504592088845017e-06</v>
+        <v>3.578858602178476e-06</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>3.637167794129795e-06</v>
+        <v>3.717549821692276e-06</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>3.763176712890682e-06</v>
+        <v>3.845962167477882e-06</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>3.881624668440677e-06</v>
+        <v>3.963146160244625e-06</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>3.991722136157875e-06</v>
+        <v>4.068844646419977e-06</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>4.092686705299163e-06</v>
+        <v>4.162824538258651e-06</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>4.183735965121347e-06</v>
+        <v>4.244852748015291e-06</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>4.264087504881566e-06</v>
+        <v>4.31469618794483e-06</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>4.332958913836399e-06</v>
+        <v>4.372121770301716e-06</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>4.389567781243e-06</v>
+        <v>4.416896407340886e-06</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>4.433131696358042e-06</v>
+        <v>4.448787011316879e-06</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>4.462868248438555e-06</v>
+        <v>4.467560494484525e-06</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>4.477995026741382e-06</v>
+        <v>4.4729837690985e-06</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>4.477729620523412e-06</v>
+        <v>4.46482374741352e-06</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>4.461289619041533e-06</v>
+        <v>4.442847341684302e-06</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>4.427892611552635e-06</v>
+        <v>4.406821464165557e-06</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>4.376756187313605e-06</v>
+        <v>4.356513027112004e-06</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>4.307097935581334e-06</v>
+        <v>4.291688942778357e-06</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>4.218135445612709e-06</v>
+        <v>4.21211612341933e-06</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>4.10908630666462e-06</v>
+        <v>4.11756148128964e-06</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>3.979168107993956e-06</v>
+        <v>4.007791928644001e-06</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>3.827598438857605e-06</v>
+        <v>3.882574377737128e-06</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>3.655630334434871e-06</v>
+        <v>3.742799858144426e-06</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>3.490242456807444e-06</v>
+        <v>3.603566911646897e-06</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.376046145399939e-06</v>
+        <v>3.489712092611887e-06</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.357996848901387e-06</v>
+        <v>3.426261996900884e-06</v>
       </c>
     </row>
   </sheetData>
